--- a/Code/Results/Cases/Case_7_48/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_48/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.30803030831332</v>
+        <v>18.23491804702751</v>
       </c>
       <c r="C2">
-        <v>12.98301734187053</v>
+        <v>6.630838463803867</v>
       </c>
       <c r="D2">
-        <v>5.30333144341802</v>
+        <v>5.933739781739132</v>
       </c>
       <c r="E2">
-        <v>5.830455715808455</v>
+        <v>6.901045213544185</v>
       </c>
       <c r="F2">
-        <v>39.1409815954756</v>
+        <v>36.06927787184981</v>
       </c>
       <c r="G2">
-        <v>2.091669194283275</v>
+        <v>2.131989554806641</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>20.17758795477861</v>
+        <v>14.00259724319259</v>
       </c>
       <c r="L2">
-        <v>7.522425418505938</v>
+        <v>7.123871397567277</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>14.59768165274347</v>
+        <v>16.8871026952518</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.709286077018</v>
+        <v>17.23204104261947</v>
       </c>
       <c r="C3">
-        <v>12.08087955520658</v>
+        <v>6.26402490619112</v>
       </c>
       <c r="D3">
-        <v>5.378676209973968</v>
+        <v>6.004007981379029</v>
       </c>
       <c r="E3">
-        <v>5.835788379674776</v>
+        <v>6.794562740007376</v>
       </c>
       <c r="F3">
-        <v>37.46269791119325</v>
+        <v>35.01236678290545</v>
       </c>
       <c r="G3">
-        <v>2.103679117881713</v>
+        <v>2.141002119770786</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>18.72774481148022</v>
+        <v>13.25705842026671</v>
       </c>
       <c r="L3">
-        <v>7.272870071871592</v>
+        <v>6.92665543457246</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>14.75771272343634</v>
+        <v>16.97041807002437</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.69575656830223</v>
+        <v>16.60023602348589</v>
       </c>
       <c r="C4">
-        <v>11.50043772795311</v>
+        <v>6.029372868053706</v>
       </c>
       <c r="D4">
-        <v>5.427135346605126</v>
+        <v>6.047326790152193</v>
       </c>
       <c r="E4">
-        <v>5.841645298354484</v>
+        <v>6.732408620328322</v>
       </c>
       <c r="F4">
-        <v>36.43803626378396</v>
+        <v>34.37511051553872</v>
       </c>
       <c r="G4">
-        <v>2.111204495829754</v>
+        <v>2.1466788674894</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>17.9245000607413</v>
+        <v>12.78859890849927</v>
       </c>
       <c r="L4">
-        <v>7.121771021394893</v>
+        <v>6.807678673169233</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>14.86133395260297</v>
+        <v>17.02685795143937</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.27490911090225</v>
+        <v>16.33900729327904</v>
       </c>
       <c r="C5">
-        <v>11.25711023920485</v>
+        <v>5.931388756780046</v>
       </c>
       <c r="D5">
-        <v>5.44741165247618</v>
+        <v>6.065041915349037</v>
       </c>
       <c r="E5">
-        <v>5.844659835974658</v>
+        <v>6.707891391109416</v>
       </c>
       <c r="F5">
-        <v>36.02224328229949</v>
+        <v>34.1185417440629</v>
       </c>
       <c r="G5">
-        <v>2.11431250197696</v>
+        <v>2.149029853155436</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>17.59096142201079</v>
+        <v>12.59521936470736</v>
       </c>
       <c r="L5">
-        <v>7.060776948684294</v>
+        <v>6.759769465010869</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>14.90485342855232</v>
+        <v>17.05113846052318</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.20456263661614</v>
+        <v>16.29541225520769</v>
       </c>
       <c r="C6">
-        <v>11.21629229442056</v>
+        <v>5.914976421231331</v>
       </c>
       <c r="D6">
-        <v>5.450809842001367</v>
+        <v>6.067987785789406</v>
       </c>
       <c r="E6">
-        <v>5.845197706841627</v>
+        <v>6.703869283100253</v>
       </c>
       <c r="F6">
-        <v>35.95331799176179</v>
+        <v>34.07613244042812</v>
       </c>
       <c r="G6">
-        <v>2.114831173580094</v>
+        <v>2.149422555257412</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>17.53520843785132</v>
+        <v>12.56296620044075</v>
       </c>
       <c r="L6">
-        <v>7.050685385233846</v>
+        <v>6.751850185833574</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>14.91215642336494</v>
+        <v>17.05524624961664</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.69011223118245</v>
+        <v>16.59672783720551</v>
       </c>
       <c r="C7">
-        <v>11.49718378473134</v>
+        <v>6.028060961739934</v>
       </c>
       <c r="D7">
-        <v>5.427406687095878</v>
+        <v>6.047565426308809</v>
       </c>
       <c r="E7">
-        <v>5.841683439179826</v>
+        <v>6.732074689441424</v>
       </c>
       <c r="F7">
-        <v>36.43242113526122</v>
+        <v>34.37163746992636</v>
       </c>
       <c r="G7">
-        <v>2.111246239855849</v>
+        <v>2.146710419021464</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>17.92002673028087</v>
+        <v>12.78600064750458</v>
       </c>
       <c r="L7">
-        <v>7.120946021894959</v>
+        <v>6.807030167277057</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>14.861915703771</v>
+        <v>17.02718028146005</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.76348944063369</v>
+        <v>17.89259649214931</v>
       </c>
       <c r="C8">
-        <v>12.67738755754297</v>
+        <v>6.50631969249942</v>
       </c>
       <c r="D8">
-        <v>5.328838701810649</v>
+        <v>5.957943813989107</v>
       </c>
       <c r="E8">
-        <v>5.831744954372338</v>
+        <v>6.863660449735836</v>
       </c>
       <c r="F8">
-        <v>38.56126193558107</v>
+        <v>35.70253129119426</v>
       </c>
       <c r="G8">
-        <v>2.095780920282761</v>
+        <v>2.135068472128184</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>19.68295597010966</v>
+        <v>13.74786801467509</v>
       </c>
       <c r="L8">
-        <v>7.435961466372587</v>
+        <v>7.055457530982688</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>14.65171195163381</v>
+        <v>16.91470314118956</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.65421972138141</v>
+        <v>20.29782558102292</v>
       </c>
       <c r="C9">
-        <v>14.78757643241895</v>
+        <v>7.36956930646612</v>
       </c>
       <c r="D9">
-        <v>5.154302924177116</v>
+        <v>5.782659493623145</v>
       </c>
       <c r="E9">
-        <v>5.833797381781965</v>
+        <v>7.147303767750993</v>
       </c>
       <c r="F9">
-        <v>42.77312338526621</v>
+        <v>38.39829533221679</v>
       </c>
       <c r="G9">
-        <v>2.066486467025245</v>
+        <v>2.113289744327463</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>23.09663170530765</v>
+        <v>15.54223816911698</v>
       </c>
       <c r="L9">
-        <v>8.06908568221451</v>
+        <v>7.55767781852445</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>14.28497428243022</v>
+        <v>16.73842732667162</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>31.48671193415939</v>
+        <v>21.97434644916429</v>
       </c>
       <c r="C10">
-        <v>16.22343592807272</v>
+        <v>7.959348827220375</v>
       </c>
       <c r="D10">
-        <v>5.039836464373204</v>
+        <v>5.652761269389099</v>
       </c>
       <c r="E10">
-        <v>5.850028385109637</v>
+        <v>7.371359480484473</v>
       </c>
       <c r="F10">
-        <v>45.88596938801278</v>
+        <v>40.42408275341815</v>
       </c>
       <c r="G10">
-        <v>2.045330433712912</v>
+        <v>2.097802532965919</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>25.41669236133284</v>
+        <v>17.04443728479709</v>
       </c>
       <c r="L10">
-        <v>8.542456264753371</v>
+        <v>7.933888981459103</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>14.04814389480046</v>
+        <v>16.63955612063679</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>32.73346130595076</v>
+        <v>22.71676163879788</v>
       </c>
       <c r="C11">
-        <v>16.85439614669419</v>
+        <v>8.21843111676522</v>
       </c>
       <c r="D11">
-        <v>4.99145026741597</v>
+        <v>5.593076773665831</v>
       </c>
       <c r="E11">
-        <v>5.861005292275945</v>
+        <v>7.476726643778625</v>
       </c>
       <c r="F11">
-        <v>47.30760179299538</v>
+        <v>41.35469656244545</v>
       </c>
       <c r="G11">
-        <v>2.035716839435715</v>
+        <v>2.090836992192331</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>26.43523439877283</v>
+        <v>17.70483976105853</v>
       </c>
       <c r="L11">
-        <v>8.759637321382959</v>
+        <v>8.106322373062314</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>13.94886083826053</v>
+        <v>16.60214783149394</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>33.19997457174175</v>
+        <v>22.99499208106552</v>
       </c>
       <c r="C12">
-        <v>17.09038302624459</v>
+        <v>8.315261988803949</v>
       </c>
       <c r="D12">
-        <v>4.973733429219305</v>
+        <v>5.570358221990376</v>
       </c>
       <c r="E12">
-        <v>5.865715982004792</v>
+        <v>7.517127140784624</v>
       </c>
       <c r="F12">
-        <v>47.8470441479191</v>
+        <v>41.70839097414947</v>
       </c>
       <c r="G12">
-        <v>2.032071199501082</v>
+        <v>2.088207854716745</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>26.81600746646458</v>
+        <v>17.95092641526566</v>
       </c>
       <c r="L12">
-        <v>8.842169967354597</v>
+        <v>8.171790540598375</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>13.91262287207775</v>
+        <v>16.58915755622681</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>33.09974459726975</v>
+        <v>22.93519889815397</v>
       </c>
       <c r="C13">
-        <v>17.03968557511683</v>
+        <v>8.294463714835306</v>
       </c>
       <c r="D13">
-        <v>4.977520725644088</v>
+        <v>5.575256832807902</v>
       </c>
       <c r="E13">
-        <v>5.864676172488145</v>
+        <v>7.508403805400862</v>
       </c>
       <c r="F13">
-        <v>47.73081020287798</v>
+        <v>41.63215879207019</v>
       </c>
       <c r="G13">
-        <v>2.032856700662319</v>
+        <v>2.088773755131131</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>26.73421374409305</v>
+        <v>17.89810242320065</v>
       </c>
       <c r="L13">
-        <v>8.824381511835643</v>
+        <v>8.157683312417126</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>13.92036439624584</v>
+        <v>16.59190147808252</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>32.77195136449877</v>
+        <v>22.73970988857359</v>
       </c>
       <c r="C14">
-        <v>16.87386836412963</v>
+        <v>8.226422760022501</v>
       </c>
       <c r="D14">
-        <v>4.989980052807038</v>
+        <v>5.591210251590177</v>
       </c>
       <c r="E14">
-        <v>5.861381512199952</v>
+        <v>7.480040350332137</v>
       </c>
       <c r="F14">
-        <v>47.35195771298892</v>
+        <v>41.38376923161541</v>
       </c>
       <c r="G14">
-        <v>2.035417056035328</v>
+        <v>2.090620537558004</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>26.46665722879514</v>
+        <v>17.7251646201959</v>
       </c>
       <c r="L14">
-        <v>8.766421279362357</v>
+        <v>8.111705095166363</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>13.94585138363379</v>
+        <v>16.60105502364047</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>32.57045200916684</v>
+        <v>22.61958963550176</v>
       </c>
       <c r="C15">
-        <v>16.77192520249972</v>
+        <v>8.184580838333916</v>
       </c>
       <c r="D15">
-        <v>4.997693205301433</v>
+        <v>5.60096589405721</v>
       </c>
       <c r="E15">
-        <v>5.859436760748685</v>
+        <v>7.462732268863928</v>
       </c>
       <c r="F15">
-        <v>47.12005449821752</v>
+        <v>41.23179207613403</v>
       </c>
       <c r="G15">
-        <v>2.036984458080327</v>
+        <v>2.09175276896547</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>26.30214156738151</v>
+        <v>17.61871965876896</v>
       </c>
       <c r="L15">
-        <v>8.730957968791602</v>
+        <v>8.083564149713169</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>13.96164448317115</v>
+        <v>16.60681765658129</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>31.40442618736164</v>
+        <v>21.92541997373703</v>
       </c>
       <c r="C16">
-        <v>16.18177473761428</v>
+        <v>7.942235588723241</v>
       </c>
       <c r="D16">
-        <v>5.043078903844143</v>
+        <v>5.656647191917298</v>
       </c>
       <c r="E16">
-        <v>5.849386414466683</v>
+        <v>7.364543139008941</v>
       </c>
       <c r="F16">
-        <v>45.79319673483067</v>
+        <v>40.36344521599761</v>
       </c>
       <c r="G16">
-        <v>2.04595836506553</v>
+        <v>2.098259109966699</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>25.34941723950176</v>
+        <v>17.00071147901579</v>
       </c>
       <c r="L16">
-        <v>8.528301803776339</v>
+        <v>7.922644628043226</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>14.05481400316596</v>
+        <v>16.64216037170028</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>30.67867296613669</v>
+        <v>21.49437459425024</v>
       </c>
       <c r="C17">
-        <v>15.81421330876598</v>
+        <v>7.791235365613189</v>
       </c>
       <c r="D17">
-        <v>5.071914549420063</v>
+        <v>5.690632168712506</v>
       </c>
       <c r="E17">
-        <v>5.844166400935936</v>
+        <v>7.305191832967811</v>
       </c>
       <c r="F17">
-        <v>44.98080713444466</v>
+        <v>39.83304096221293</v>
       </c>
       <c r="G17">
-        <v>2.051461774610961</v>
+        <v>2.102268978106816</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>24.75575989830374</v>
+        <v>16.61431290357988</v>
       </c>
       <c r="L17">
-        <v>8.404462870553735</v>
+        <v>7.8242437845415</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>14.11422923858706</v>
+        <v>16.66583955074919</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>30.25727938405201</v>
+        <v>21.24454032038696</v>
       </c>
       <c r="C18">
-        <v>15.60069332423556</v>
+        <v>7.703513607422509</v>
       </c>
       <c r="D18">
-        <v>5.088841488284919</v>
+        <v>5.710125701911763</v>
       </c>
       <c r="E18">
-        <v>5.841499749534392</v>
+        <v>7.271378142727185</v>
       </c>
       <c r="F18">
-        <v>44.51404093371313</v>
+        <v>39.52881832397996</v>
       </c>
       <c r="G18">
-        <v>2.054628620195932</v>
+        <v>2.10458303718723</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>24.41080866158931</v>
+        <v>16.38934945452061</v>
       </c>
       <c r="L18">
-        <v>8.333404694849527</v>
+        <v>7.76776828425918</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>14.14918893574518</v>
+        <v>16.6801658484313</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>30.11391165065704</v>
+        <v>21.15962351585486</v>
       </c>
       <c r="C19">
-        <v>15.52802992972198</v>
+        <v>7.673661774969521</v>
       </c>
       <c r="D19">
-        <v>5.094629243338171</v>
+        <v>5.71671757312395</v>
       </c>
       <c r="E19">
-        <v>5.840653467123506</v>
+        <v>7.25998488285084</v>
       </c>
       <c r="F19">
-        <v>44.35608096564241</v>
+        <v>39.42596130413281</v>
       </c>
       <c r="G19">
-        <v>2.055701293283817</v>
+        <v>2.105367941788972</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>24.29340322209008</v>
+        <v>16.31270986753133</v>
       </c>
       <c r="L19">
-        <v>8.30937447174391</v>
+        <v>7.748668200975284</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>14.16115666994184</v>
+        <v>16.68513535444717</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>30.75633775406613</v>
+        <v>21.54045772034559</v>
       </c>
       <c r="C20">
-        <v>15.85355735290315</v>
+        <v>7.807399377009189</v>
       </c>
       <c r="D20">
-        <v>5.0688091088232</v>
+        <v>5.687020192065596</v>
       </c>
       <c r="E20">
-        <v>5.844687073720616</v>
+        <v>7.311476361239971</v>
       </c>
       <c r="F20">
-        <v>45.0672340936415</v>
+        <v>39.8894154952932</v>
       </c>
       <c r="G20">
-        <v>2.050875824567317</v>
+        <v>2.101841345031098</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>24.81931493359382</v>
+        <v>16.65572591753104</v>
       </c>
       <c r="L20">
-        <v>8.41762794569248</v>
+        <v>7.834706222876979</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>14.10782212097929</v>
+        <v>16.6632451241911</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>32.86838068185001</v>
+        <v>22.79720837095252</v>
       </c>
       <c r="C21">
-        <v>16.92265061660551</v>
+        <v>8.24644229942561</v>
       </c>
       <c r="D21">
-        <v>4.986303311457798</v>
+        <v>5.586527801953994</v>
       </c>
       <c r="E21">
-        <v>5.862333880581131</v>
+        <v>7.488357751043926</v>
       </c>
       <c r="F21">
-        <v>47.4632028436162</v>
+        <v>41.45669207653328</v>
       </c>
       <c r="G21">
-        <v>2.034665216319108</v>
+        <v>2.090077885029561</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>26.54537551882808</v>
+        <v>17.77606781168562</v>
       </c>
       <c r="L21">
-        <v>8.783437399989037</v>
+        <v>8.12520543213309</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>13.93832710322305</v>
+        <v>16.5983337632822</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>34.21630353310793</v>
+        <v>23.61859221567686</v>
       </c>
       <c r="C22">
-        <v>17.60434887051935</v>
+        <v>8.525962245090456</v>
       </c>
       <c r="D22">
-        <v>4.935961068249991</v>
+        <v>5.520148985441465</v>
       </c>
       <c r="E22">
-        <v>5.877116654472491</v>
+        <v>7.606880666682303</v>
       </c>
       <c r="F22">
-        <v>49.03577774384667</v>
+        <v>42.48855553138512</v>
       </c>
       <c r="G22">
-        <v>2.024036600934963</v>
+        <v>2.082438114833132</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>27.64495400198417</v>
+        <v>18.48507634715077</v>
       </c>
       <c r="L22">
-        <v>9.024238052142252</v>
+        <v>8.316062272818195</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>13.83555595786761</v>
+        <v>16.5628092314976</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>33.49970490901448</v>
+        <v>23.17384383264892</v>
       </c>
       <c r="C23">
-        <v>17.24197779018762</v>
+        <v>8.377438043608699</v>
       </c>
       <c r="D23">
-        <v>4.96247242620301</v>
+        <v>5.555652248995223</v>
       </c>
       <c r="E23">
-        <v>5.868915987908012</v>
+        <v>7.543352915786031</v>
       </c>
       <c r="F23">
-        <v>48.19571465896897</v>
+        <v>41.93712983620553</v>
       </c>
       <c r="G23">
-        <v>2.029714882177008</v>
+        <v>2.086512220481106</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>27.06055785535226</v>
+        <v>18.10873672945894</v>
       </c>
       <c r="L23">
-        <v>8.89554643544947</v>
+        <v>8.21410941934926</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>13.88962025904206</v>
+        <v>16.58110679204127</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30.72123845412592</v>
+        <v>21.5196298324272</v>
       </c>
       <c r="C24">
-        <v>15.83577679403048</v>
+        <v>7.800094464422967</v>
       </c>
       <c r="D24">
-        <v>5.070211997181636</v>
+        <v>5.688653304129806</v>
       </c>
       <c r="E24">
-        <v>5.844450638714093</v>
+        <v>7.308634166476466</v>
       </c>
       <c r="F24">
-        <v>45.02815959067736</v>
+        <v>39.86392634373556</v>
       </c>
       <c r="G24">
-        <v>2.051140723177297</v>
+        <v>2.102034650529895</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>24.79059309776101</v>
+        <v>16.63701188128541</v>
       </c>
       <c r="L24">
-        <v>8.411675585568702</v>
+        <v>7.829975852843186</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>14.11071629414254</v>
+        <v>16.66441585062499</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.57181659982104</v>
+        <v>19.66269597841061</v>
       </c>
       <c r="C25">
-        <v>14.23761858731095</v>
+        <v>7.143955531768925</v>
       </c>
       <c r="D25">
-        <v>5.19930150362628</v>
+        <v>5.830165698288885</v>
       </c>
       <c r="E25">
-        <v>5.830780335487865</v>
+        <v>7.067826418407799</v>
       </c>
       <c r="F25">
-        <v>41.6305662704098</v>
+        <v>37.66067742447856</v>
       </c>
       <c r="G25">
-        <v>2.074326047234681</v>
+        <v>2.119081385753907</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>22.20734030593182</v>
+        <v>15.06745023047144</v>
       </c>
       <c r="L25">
-        <v>7.89632933958349</v>
+        <v>7.420423690295033</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>14.37886493244561</v>
+        <v>16.78101997152283</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_7_48/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_48/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1210 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.23491804702751</v>
+        <v>14.56872452687699</v>
       </c>
       <c r="C2">
-        <v>6.630838463803867</v>
+        <v>6.936000198097306</v>
       </c>
       <c r="D2">
-        <v>5.933739781739132</v>
+        <v>4.997116381412535</v>
       </c>
       <c r="E2">
-        <v>6.901045213544185</v>
+        <v>8.048109949708444</v>
       </c>
       <c r="F2">
-        <v>36.06927787184981</v>
+        <v>23.21952089667669</v>
       </c>
       <c r="G2">
-        <v>2.131989554806641</v>
+        <v>31.68228049553561</v>
       </c>
       <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
+        <v>2.120051011375567</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>10.99289612190657</v>
       </c>
       <c r="K2">
-        <v>14.00259724319259</v>
+        <v>17.79874014558143</v>
       </c>
       <c r="L2">
-        <v>7.123871397567277</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>11.93315880182272</v>
       </c>
       <c r="N2">
-        <v>16.8871026952518</v>
+        <v>7.516779184616347</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>13.23755066182147</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.23204104261947</v>
+        <v>13.65822551549286</v>
       </c>
       <c r="C3">
-        <v>6.26402490619112</v>
+        <v>6.631744858475567</v>
       </c>
       <c r="D3">
-        <v>6.004007981379029</v>
+        <v>4.908394410689374</v>
       </c>
       <c r="E3">
-        <v>6.794562740007376</v>
+        <v>7.769103733617932</v>
       </c>
       <c r="F3">
-        <v>35.01236678290545</v>
+        <v>22.67605006491326</v>
       </c>
       <c r="G3">
-        <v>2.141002119770786</v>
+        <v>30.89830094310901</v>
       </c>
       <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
+        <v>2.355716792955435</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>10.94357643492476</v>
       </c>
       <c r="K3">
-        <v>13.25705842026671</v>
+        <v>17.69818307817921</v>
       </c>
       <c r="L3">
-        <v>6.92665543457246</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>11.18290158850595</v>
       </c>
       <c r="N3">
-        <v>16.97041807002437</v>
+        <v>7.215506369004328</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>13.40415081434611</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.60023602348589</v>
+        <v>13.0700598635073</v>
       </c>
       <c r="C4">
-        <v>6.029372868053706</v>
+        <v>6.43746071283252</v>
       </c>
       <c r="D4">
-        <v>6.047326790152193</v>
+        <v>4.852177027251077</v>
       </c>
       <c r="E4">
-        <v>6.732408620328322</v>
+        <v>7.591991086841883</v>
       </c>
       <c r="F4">
-        <v>34.37511051553872</v>
+        <v>22.34996805762547</v>
       </c>
       <c r="G4">
-        <v>2.1466788674894</v>
+        <v>30.42780992668278</v>
       </c>
       <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
+        <v>2.505426718897811</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>10.91811506966649</v>
       </c>
       <c r="K4">
-        <v>12.78859890849927</v>
+        <v>17.64429695528121</v>
       </c>
       <c r="L4">
-        <v>6.807678673169233</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>10.6962690034302</v>
       </c>
       <c r="N4">
-        <v>17.02685795143937</v>
+        <v>7.023887118531425</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>13.5086016456325</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.33900729327904</v>
+        <v>12.82314831433435</v>
       </c>
       <c r="C5">
-        <v>5.931388756780046</v>
+        <v>6.356440612162436</v>
       </c>
       <c r="D5">
-        <v>6.065041915349037</v>
+        <v>4.82884166870319</v>
       </c>
       <c r="E5">
-        <v>6.707891391109416</v>
+        <v>7.518395081303879</v>
       </c>
       <c r="F5">
-        <v>34.1185417440629</v>
+        <v>22.21912104768264</v>
       </c>
       <c r="G5">
-        <v>2.149029853155436</v>
+        <v>30.23898221699711</v>
       </c>
       <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
+        <v>2.567715886577047</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>10.90892348681401</v>
       </c>
       <c r="K5">
-        <v>12.59521936470736</v>
+        <v>17.6242666601899</v>
       </c>
       <c r="L5">
-        <v>6.759769465010869</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>10.49143548998534</v>
       </c>
       <c r="N5">
-        <v>17.05113846052318</v>
+        <v>6.944196744867543</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>13.55172210464134</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.29541225520769</v>
+        <v>12.78171547848103</v>
       </c>
       <c r="C6">
-        <v>5.914976421231331</v>
+        <v>6.342876735357206</v>
       </c>
       <c r="D6">
-        <v>6.067987785789406</v>
+        <v>4.824941454872541</v>
       </c>
       <c r="E6">
-        <v>6.703869283100253</v>
+        <v>7.506089898214742</v>
       </c>
       <c r="F6">
-        <v>34.07613244042812</v>
+        <v>22.19752030551258</v>
       </c>
       <c r="G6">
-        <v>2.149422555257412</v>
+        <v>30.20780752868372</v>
       </c>
       <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
+        <v>2.57813694318571</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>10.90746790908144</v>
       </c>
       <c r="K6">
-        <v>12.56296620044075</v>
+        <v>17.62105573094555</v>
       </c>
       <c r="L6">
-        <v>6.751850185833574</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>10.45702914974951</v>
       </c>
       <c r="N6">
-        <v>17.05524624961664</v>
+        <v>6.930869420357225</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>13.55891618075646</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.59672783720551</v>
+        <v>13.06675905618786</v>
       </c>
       <c r="C7">
-        <v>6.028060961739934</v>
+        <v>6.436375482684306</v>
       </c>
       <c r="D7">
-        <v>6.047565426308809</v>
+        <v>4.851864028732309</v>
       </c>
       <c r="E7">
-        <v>6.732074689441424</v>
+        <v>7.59100424568514</v>
       </c>
       <c r="F7">
-        <v>34.37163746992636</v>
+        <v>22.3481950165822</v>
       </c>
       <c r="G7">
-        <v>2.146710419021464</v>
+        <v>30.42525136616144</v>
       </c>
       <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
+        <v>2.506261557357192</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>10.91798635212612</v>
       </c>
       <c r="K7">
-        <v>12.78600064750458</v>
+        <v>17.64401907352565</v>
       </c>
       <c r="L7">
-        <v>6.807030167277057</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>10.69353296151003</v>
       </c>
       <c r="N7">
-        <v>17.02718028146005</v>
+        <v>7.022818788247216</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>13.50918091506648</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.89259649214931</v>
+        <v>14.26087404778448</v>
       </c>
       <c r="C8">
-        <v>6.50631969249942</v>
+        <v>6.832659423650164</v>
       </c>
       <c r="D8">
-        <v>5.957943813989107</v>
+        <v>4.966893326480109</v>
       </c>
       <c r="E8">
-        <v>6.863660449735836</v>
+        <v>7.953133616895407</v>
       </c>
       <c r="F8">
-        <v>35.70253129119426</v>
+        <v>23.03062507950371</v>
       </c>
       <c r="G8">
-        <v>2.135068472128184</v>
+        <v>31.4098076916391</v>
       </c>
       <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
+        <v>2.200281796945083</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>10.97487337355874</v>
       </c>
       <c r="K8">
-        <v>13.74786801467509</v>
+        <v>17.76240989371584</v>
       </c>
       <c r="L8">
-        <v>7.055457530982688</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>11.67985995299666</v>
       </c>
       <c r="N8">
-        <v>16.91470314118956</v>
+        <v>7.414313776219061</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>13.29455475672368</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.29782558102292</v>
+        <v>16.42710066691816</v>
       </c>
       <c r="C9">
-        <v>7.36956930646612</v>
+        <v>7.549543774671608</v>
       </c>
       <c r="D9">
-        <v>5.782659493623145</v>
+        <v>5.178169762549369</v>
       </c>
       <c r="E9">
-        <v>7.147303767750993</v>
+        <v>8.615874915448005</v>
       </c>
       <c r="F9">
-        <v>38.39829533221679</v>
+        <v>24.42397458931776</v>
       </c>
       <c r="G9">
-        <v>2.113289744327463</v>
+        <v>33.4195144958016</v>
       </c>
       <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
+        <v>1.639001060639133</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>11.12590520621537</v>
       </c>
       <c r="K9">
-        <v>15.54223816911698</v>
+        <v>18.05891982971103</v>
       </c>
       <c r="L9">
-        <v>7.55767781852445</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>13.40827334906098</v>
       </c>
       <c r="N9">
-        <v>16.73842732667162</v>
+        <v>8.12699113284973</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>12.89016110894848</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>21.97434644916429</v>
+        <v>17.84946764189415</v>
       </c>
       <c r="C10">
-        <v>7.959348827220375</v>
+        <v>8.080688895011457</v>
       </c>
       <c r="D10">
-        <v>5.652761269389099</v>
+        <v>5.342120453830771</v>
       </c>
       <c r="E10">
-        <v>7.371359480484473</v>
+        <v>8.918340292200599</v>
       </c>
       <c r="F10">
-        <v>40.42408275341815</v>
+        <v>25.34106627134773</v>
       </c>
       <c r="G10">
-        <v>2.097802532965919</v>
+        <v>34.69729943275625</v>
       </c>
       <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
+        <v>1.855107689932095</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>11.21722391179934</v>
       </c>
       <c r="K10">
-        <v>17.04443728479709</v>
+        <v>18.21650163639024</v>
       </c>
       <c r="L10">
-        <v>7.933888981459103</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>14.53394328949263</v>
       </c>
       <c r="N10">
-        <v>16.63955612063679</v>
+        <v>8.481378885939671</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>12.58607285182259</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.71676163879788</v>
+        <v>17.93390191428704</v>
       </c>
       <c r="C11">
-        <v>8.21843111676522</v>
+        <v>8.68555626258158</v>
       </c>
       <c r="D11">
-        <v>5.593076773665831</v>
+        <v>5.579825309985184</v>
       </c>
       <c r="E11">
-        <v>7.476726643778625</v>
+        <v>7.844221486938478</v>
       </c>
       <c r="F11">
-        <v>41.35469656244545</v>
+        <v>24.60774417660074</v>
       </c>
       <c r="G11">
-        <v>2.090836992192331</v>
+        <v>33.23184656810987</v>
       </c>
       <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
+        <v>2.79071828751918</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>10.87050088436266</v>
       </c>
       <c r="K11">
-        <v>17.70483976105853</v>
+        <v>17.41556183452756</v>
       </c>
       <c r="L11">
-        <v>8.106322373062314</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>14.85200713097572</v>
       </c>
       <c r="N11">
-        <v>16.60214783149394</v>
+        <v>7.522376543002304</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>12.32631229614889</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>22.99499208106552</v>
+        <v>17.71257765239021</v>
       </c>
       <c r="C12">
-        <v>8.315261988803949</v>
+        <v>9.103302669358298</v>
       </c>
       <c r="D12">
-        <v>5.570358221990376</v>
+        <v>5.758593819686553</v>
       </c>
       <c r="E12">
-        <v>7.517127140784624</v>
+        <v>7.080470992461835</v>
       </c>
       <c r="F12">
-        <v>41.70839097414947</v>
+        <v>23.77374984674714</v>
       </c>
       <c r="G12">
-        <v>2.088207854716745</v>
+        <v>31.69130684137897</v>
       </c>
       <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
+        <v>4.085805283630584</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>10.55217376140954</v>
       </c>
       <c r="K12">
-        <v>17.95092641526566</v>
+        <v>16.70107596954677</v>
       </c>
       <c r="L12">
-        <v>8.171790540598375</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>14.89131039274461</v>
       </c>
       <c r="N12">
-        <v>16.58915755622681</v>
+        <v>6.685155647097213</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>12.19228587052673</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>22.93519889815397</v>
+        <v>17.23539039757204</v>
       </c>
       <c r="C13">
-        <v>8.294463714835306</v>
+        <v>9.409560594533454</v>
       </c>
       <c r="D13">
-        <v>5.575256832807902</v>
+        <v>5.902216151848383</v>
       </c>
       <c r="E13">
-        <v>7.508403805400862</v>
+        <v>6.566332376388511</v>
       </c>
       <c r="F13">
-        <v>41.63215879207019</v>
+        <v>22.79346407746642</v>
       </c>
       <c r="G13">
-        <v>2.088773755131131</v>
+        <v>29.96704819028589</v>
       </c>
       <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
+        <v>5.452351022254853</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>10.23487326682788</v>
       </c>
       <c r="K13">
-        <v>17.89810242320065</v>
+        <v>16.00869661822681</v>
       </c>
       <c r="L13">
-        <v>8.157683312417126</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>14.71996753179822</v>
       </c>
       <c r="N13">
-        <v>16.59190147808252</v>
+        <v>5.899161676737007</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>12.14561140279221</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.73970988857359</v>
+        <v>16.77859252888825</v>
       </c>
       <c r="C14">
-        <v>8.226422760022501</v>
+        <v>9.57784408961788</v>
       </c>
       <c r="D14">
-        <v>5.591210251590177</v>
+        <v>5.987832095143975</v>
       </c>
       <c r="E14">
-        <v>7.480040350332137</v>
+        <v>6.391091552978188</v>
       </c>
       <c r="F14">
-        <v>41.38376923161541</v>
+        <v>22.03481051727605</v>
       </c>
       <c r="G14">
-        <v>2.090620537558004</v>
+        <v>28.66673413354684</v>
       </c>
       <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
+        <v>6.484267874956745</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>10.0142680035195</v>
       </c>
       <c r="K14">
-        <v>17.7251646201959</v>
+        <v>15.53874685164664</v>
       </c>
       <c r="L14">
-        <v>8.111705095166363</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>14.50265980422664</v>
       </c>
       <c r="N14">
-        <v>16.60105502364047</v>
+        <v>5.39820975233761</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>12.15451195410644</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.61958963550176</v>
+        <v>16.61064155680877</v>
       </c>
       <c r="C15">
-        <v>8.184580838333916</v>
+        <v>9.593699634535625</v>
       </c>
       <c r="D15">
-        <v>5.60096589405721</v>
+        <v>5.999592087594615</v>
       </c>
       <c r="E15">
-        <v>7.462732268863928</v>
+        <v>6.370638694904744</v>
       </c>
       <c r="F15">
-        <v>41.23179207613403</v>
+        <v>21.82072459820638</v>
       </c>
       <c r="G15">
-        <v>2.09175276896547</v>
+        <v>28.31390576074176</v>
       </c>
       <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
+        <v>6.723529951491004</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>9.961950325268925</v>
       </c>
       <c r="K15">
-        <v>17.61871965876896</v>
+        <v>15.43074619697288</v>
       </c>
       <c r="L15">
-        <v>8.083564149713169</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>14.40371010158353</v>
       </c>
       <c r="N15">
-        <v>16.60681765658129</v>
+        <v>5.282230945475741</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>12.17207586792678</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.92541997373703</v>
+        <v>16.08536498058865</v>
       </c>
       <c r="C16">
-        <v>7.942235588723241</v>
+        <v>9.329411775708621</v>
       </c>
       <c r="D16">
-        <v>5.656647191917298</v>
+        <v>5.901556936400807</v>
       </c>
       <c r="E16">
-        <v>7.364543139008941</v>
+        <v>6.314889436762025</v>
       </c>
       <c r="F16">
-        <v>40.36344521599761</v>
+        <v>21.58533341102912</v>
       </c>
       <c r="G16">
-        <v>2.098259109966699</v>
+        <v>28.04326591911378</v>
       </c>
       <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
+        <v>6.520470671220744</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>9.983870526246191</v>
       </c>
       <c r="K16">
-        <v>17.00071147901579</v>
+        <v>15.50047583844573</v>
       </c>
       <c r="L16">
-        <v>7.922644628043226</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>13.96535539651417</v>
       </c>
       <c r="N16">
-        <v>16.64216037170028</v>
+        <v>5.258416201974881</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>12.30567245586436</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.49437459425024</v>
+        <v>15.9302251531907</v>
       </c>
       <c r="C17">
-        <v>7.791235365613189</v>
+        <v>9.028372059426616</v>
       </c>
       <c r="D17">
-        <v>5.690632168712506</v>
+        <v>5.778833333180328</v>
       </c>
       <c r="E17">
-        <v>7.305191832967811</v>
+        <v>6.331518743455984</v>
       </c>
       <c r="F17">
-        <v>39.83304096221293</v>
+        <v>21.82098024199045</v>
       </c>
       <c r="G17">
-        <v>2.102268978106816</v>
+        <v>28.54829087943908</v>
       </c>
       <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
+        <v>5.785698165293577</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>10.11885411842645</v>
       </c>
       <c r="K17">
-        <v>16.61431290357988</v>
+        <v>15.80303451233826</v>
       </c>
       <c r="L17">
-        <v>7.8242437845415</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>13.74318546854092</v>
       </c>
       <c r="N17">
-        <v>16.66583955074919</v>
+        <v>5.496796348741418</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>12.40341012658974</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.24454032038696</v>
+        <v>16.08494792483556</v>
       </c>
       <c r="C18">
-        <v>7.703513607422509</v>
+        <v>8.669284803763947</v>
       </c>
       <c r="D18">
-        <v>5.710125701911763</v>
+        <v>5.626103595999044</v>
       </c>
       <c r="E18">
-        <v>7.271378142727185</v>
+        <v>6.596794280256706</v>
       </c>
       <c r="F18">
-        <v>39.52881832397996</v>
+        <v>22.48039889218666</v>
       </c>
       <c r="G18">
-        <v>2.10458303718723</v>
+        <v>29.76654725976203</v>
       </c>
       <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
+        <v>4.52955419970282</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>10.36484511649215</v>
       </c>
       <c r="K18">
-        <v>16.38934945452061</v>
+        <v>16.34345194049875</v>
       </c>
       <c r="L18">
-        <v>7.76776828425918</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>13.6887278024332</v>
       </c>
       <c r="N18">
-        <v>16.6801658484313</v>
+        <v>6.054563838970268</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>12.49224288718922</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.15962351585486</v>
+        <v>16.47508217386126</v>
       </c>
       <c r="C19">
-        <v>7.673661774969521</v>
+        <v>8.303220091877222</v>
       </c>
       <c r="D19">
-        <v>5.71671757312395</v>
+        <v>5.467924629157415</v>
       </c>
       <c r="E19">
-        <v>7.25998488285084</v>
+        <v>7.272952227288056</v>
       </c>
       <c r="F19">
-        <v>39.42596130413281</v>
+        <v>23.42108691617099</v>
       </c>
       <c r="G19">
-        <v>2.105367941788972</v>
+        <v>31.45369522630743</v>
       </c>
       <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
+        <v>3.02757665998439</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>10.68268197224421</v>
       </c>
       <c r="K19">
-        <v>16.31270986753133</v>
+        <v>17.04522075695665</v>
       </c>
       <c r="L19">
-        <v>7.748668200975284</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>13.77495530359173</v>
       </c>
       <c r="N19">
-        <v>16.68513535444717</v>
+        <v>6.89480171774892</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>12.58228122856143</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.54045772034559</v>
+        <v>17.48387182413264</v>
       </c>
       <c r="C20">
-        <v>7.807399377009189</v>
+        <v>7.945879024831501</v>
       </c>
       <c r="D20">
-        <v>5.687020192065596</v>
+        <v>5.300477391871476</v>
       </c>
       <c r="E20">
-        <v>7.311476361239971</v>
+        <v>8.833100517009152</v>
       </c>
       <c r="F20">
-        <v>39.8894154952932</v>
+        <v>25.09231037693049</v>
       </c>
       <c r="G20">
-        <v>2.101841345031098</v>
+        <v>34.3479644234662</v>
       </c>
       <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
+        <v>1.757028940950227</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>11.18945360399377</v>
       </c>
       <c r="K20">
-        <v>16.65572591753104</v>
+        <v>18.16767060182625</v>
       </c>
       <c r="L20">
-        <v>7.834706222876979</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>14.24564356943808</v>
       </c>
       <c r="N20">
-        <v>16.6632451241911</v>
+        <v>8.384001946302877</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>12.66457162293886</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22.79720837095252</v>
+        <v>18.61889662196657</v>
       </c>
       <c r="C21">
-        <v>8.24644229942561</v>
+        <v>8.276298005832745</v>
       </c>
       <c r="D21">
-        <v>5.586527801953994</v>
+        <v>5.395297546082016</v>
       </c>
       <c r="E21">
-        <v>7.488357751043926</v>
+        <v>9.295168453931629</v>
       </c>
       <c r="F21">
-        <v>41.45669207653328</v>
+        <v>26.0096027262244</v>
       </c>
       <c r="G21">
-        <v>2.090077885029561</v>
+        <v>35.70703633870697</v>
       </c>
       <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
+        <v>2.052024295606524</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>11.33828454597713</v>
       </c>
       <c r="K21">
-        <v>17.77606781168562</v>
+        <v>18.46070214788249</v>
       </c>
       <c r="L21">
-        <v>8.12520543213309</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>15.10115895711108</v>
       </c>
       <c r="N21">
-        <v>16.5983337632822</v>
+        <v>8.851001863678945</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>12.45887775032591</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.61859221567686</v>
+        <v>19.29873743864123</v>
       </c>
       <c r="C22">
-        <v>8.525962245090456</v>
+        <v>8.507017754816292</v>
       </c>
       <c r="D22">
-        <v>5.520148985441465</v>
+        <v>5.464609564731533</v>
       </c>
       <c r="E22">
-        <v>7.606880666682303</v>
+        <v>9.511956544291547</v>
       </c>
       <c r="F22">
-        <v>42.48855553138512</v>
+        <v>26.5437158231679</v>
       </c>
       <c r="G22">
-        <v>2.082438114833132</v>
+        <v>36.47787439840668</v>
       </c>
       <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
+        <v>2.2353418766534</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>11.41752266197155</v>
       </c>
       <c r="K22">
-        <v>18.48507634715077</v>
+        <v>18.60836132413807</v>
       </c>
       <c r="L22">
-        <v>8.316062272818195</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>15.62792553854876</v>
       </c>
       <c r="N22">
-        <v>16.5628092314976</v>
+        <v>9.080534352461234</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>12.31754720587918</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.17384383264892</v>
+        <v>18.93861613238123</v>
       </c>
       <c r="C23">
-        <v>8.377438043608699</v>
+        <v>8.384499440171776</v>
       </c>
       <c r="D23">
-        <v>5.555652248995223</v>
+        <v>5.427787158595037</v>
       </c>
       <c r="E23">
-        <v>7.543352915786031</v>
+        <v>9.396779612568583</v>
       </c>
       <c r="F23">
-        <v>41.93712983620553</v>
+        <v>26.25839371680547</v>
       </c>
       <c r="G23">
-        <v>2.086512220481106</v>
+        <v>36.06607143811146</v>
       </c>
       <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
+        <v>2.137809601954201</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>11.37475488678853</v>
       </c>
       <c r="K23">
-        <v>18.10873672945894</v>
+        <v>18.52877804505212</v>
       </c>
       <c r="L23">
-        <v>8.21410941934926</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>15.34879812911888</v>
       </c>
       <c r="N23">
-        <v>16.58110679204127</v>
+        <v>8.958681434141459</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>12.39285826631462</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.5196298324272</v>
+        <v>17.5145893013889</v>
       </c>
       <c r="C24">
-        <v>7.800094464422967</v>
+        <v>7.906793274165112</v>
       </c>
       <c r="D24">
-        <v>5.688653304129806</v>
+        <v>5.284624593107119</v>
       </c>
       <c r="E24">
-        <v>7.308634166476466</v>
+        <v>8.94903106104378</v>
       </c>
       <c r="F24">
-        <v>39.86392634373556</v>
+        <v>25.18393946828681</v>
       </c>
       <c r="G24">
-        <v>2.102034650529895</v>
+        <v>34.51575299127936</v>
       </c>
       <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
+        <v>1.761492260619879</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>11.22310826446006</v>
       </c>
       <c r="K24">
-        <v>16.63701188128541</v>
+        <v>18.24416090765392</v>
       </c>
       <c r="L24">
-        <v>7.829975852843186</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>14.24713240458906</v>
       </c>
       <c r="N24">
-        <v>16.66441585062499</v>
+        <v>8.482961188640457</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>12.68081805394823</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.66269597841061</v>
+        <v>15.84814042393934</v>
       </c>
       <c r="C25">
-        <v>7.143955531768925</v>
+        <v>7.362158776520243</v>
       </c>
       <c r="D25">
-        <v>5.830165698288885</v>
+        <v>5.122607423051889</v>
       </c>
       <c r="E25">
-        <v>7.067826418407799</v>
+        <v>8.441825591754402</v>
       </c>
       <c r="F25">
-        <v>37.66067742447856</v>
+        <v>24.04186039898527</v>
       </c>
       <c r="G25">
-        <v>2.119081385753907</v>
+        <v>32.86837383556309</v>
       </c>
       <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
+        <v>1.78684260543326</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>11.08064978792925</v>
       </c>
       <c r="K25">
-        <v>15.06745023047144</v>
+        <v>17.97153780551695</v>
       </c>
       <c r="L25">
-        <v>7.420423690295033</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>12.96264460730829</v>
       </c>
       <c r="N25">
-        <v>16.78101997152283</v>
+        <v>7.94038368889578</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>12.99788838412803</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_7_48/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_48/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1204 +421,1354 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.56872452687699</v>
+        <v>14.07743348957307</v>
       </c>
       <c r="C2">
-        <v>6.936000198097306</v>
+        <v>7.088400203138308</v>
       </c>
       <c r="D2">
-        <v>4.997116381412535</v>
+        <v>5.03486759332201</v>
       </c>
       <c r="E2">
-        <v>8.048109949708444</v>
+        <v>7.847061497980164</v>
       </c>
       <c r="F2">
-        <v>23.21952089667669</v>
+        <v>22.16963858207994</v>
       </c>
       <c r="G2">
-        <v>31.68228049553561</v>
+        <v>29.40714876468515</v>
       </c>
       <c r="H2">
-        <v>2.120051011375567</v>
+        <v>2.015445702874068</v>
       </c>
       <c r="J2">
-        <v>10.99289612190657</v>
+        <v>10.90263746180323</v>
       </c>
       <c r="K2">
-        <v>17.79874014558143</v>
+        <v>16.80082240620131</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>13.91874975754958</v>
       </c>
       <c r="M2">
-        <v>11.93315880182272</v>
+        <v>11.01874570966734</v>
       </c>
       <c r="N2">
-        <v>7.516779184616347</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>11.88490922634443</v>
       </c>
       <c r="P2">
-        <v>13.23755066182147</v>
+        <v>7.639866665724145</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>12.9847884635254</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.65822551549286</v>
+        <v>13.16619591916622</v>
       </c>
       <c r="C3">
-        <v>6.631744858475567</v>
+        <v>6.690664006150457</v>
       </c>
       <c r="D3">
-        <v>4.908394410689374</v>
+        <v>4.915286364326072</v>
       </c>
       <c r="E3">
-        <v>7.769103733617932</v>
+        <v>7.599598323195857</v>
       </c>
       <c r="F3">
-        <v>22.67605006491326</v>
+        <v>21.71200715133422</v>
       </c>
       <c r="G3">
-        <v>30.89830094310901</v>
+        <v>28.81733293688711</v>
       </c>
       <c r="H3">
-        <v>2.355716792955435</v>
+        <v>2.228350599245006</v>
       </c>
       <c r="J3">
-        <v>10.94357643492476</v>
+        <v>10.83809914163313</v>
       </c>
       <c r="K3">
-        <v>17.69818307817921</v>
+        <v>16.76189531688372</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>13.9925023932998</v>
       </c>
       <c r="M3">
-        <v>11.18290158850595</v>
+        <v>10.89234573561551</v>
       </c>
       <c r="N3">
-        <v>7.215506369004328</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>11.15460419450754</v>
       </c>
       <c r="P3">
-        <v>13.40415081434611</v>
+        <v>7.346957493704</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>13.14709840751448</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.0700598635073</v>
+        <v>12.60778360731175</v>
       </c>
       <c r="C4">
-        <v>6.43746071283252</v>
+        <v>6.435639693878587</v>
       </c>
       <c r="D4">
-        <v>4.852177027251077</v>
+        <v>4.839704310173955</v>
       </c>
       <c r="E4">
-        <v>7.591991086841883</v>
+        <v>7.442501105656716</v>
       </c>
       <c r="F4">
-        <v>22.34996805762547</v>
+        <v>21.43747185190342</v>
       </c>
       <c r="G4">
-        <v>30.42780992668278</v>
+        <v>28.46950776108666</v>
       </c>
       <c r="H4">
-        <v>2.505426718897811</v>
+        <v>2.363712911973283</v>
       </c>
       <c r="J4">
-        <v>10.91811506966649</v>
+        <v>10.80044678693243</v>
       </c>
       <c r="K4">
-        <v>17.64429695528121</v>
+        <v>16.74398369964317</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>14.03868454696272</v>
       </c>
       <c r="M4">
-        <v>10.6962690034302</v>
+        <v>10.83711860226023</v>
       </c>
       <c r="N4">
-        <v>7.023887118531425</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>10.68088713886513</v>
       </c>
       <c r="P4">
-        <v>13.5086016456325</v>
+        <v>7.16106595086193</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>13.24878651992578</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.82314831433435</v>
+        <v>12.37296848147894</v>
       </c>
       <c r="C5">
-        <v>6.356440612162436</v>
+        <v>6.329049373969574</v>
       </c>
       <c r="D5">
-        <v>4.82884166870319</v>
+        <v>4.80838381293928</v>
       </c>
       <c r="E5">
-        <v>7.518395081303879</v>
+        <v>7.377217616392538</v>
       </c>
       <c r="F5">
-        <v>22.21912104768264</v>
+        <v>21.32729314585138</v>
       </c>
       <c r="G5">
-        <v>30.23898221699711</v>
+        <v>28.33140499894597</v>
       </c>
       <c r="H5">
-        <v>2.567715886577047</v>
+        <v>2.420057771590851</v>
       </c>
       <c r="J5">
-        <v>10.90892348681401</v>
+        <v>10.78559288569046</v>
       </c>
       <c r="K5">
-        <v>17.6242666601899</v>
+        <v>16.73814273115773</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>14.05772793735242</v>
       </c>
       <c r="M5">
-        <v>10.49143548998534</v>
+        <v>10.82026052949592</v>
       </c>
       <c r="N5">
-        <v>6.944196744867543</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>10.48149545103276</v>
       </c>
       <c r="P5">
-        <v>13.55172210464134</v>
+        <v>7.083865374456895</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>13.29075011644717</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.78171547848103</v>
+        <v>12.33354129655432</v>
       </c>
       <c r="C6">
-        <v>6.342876735357206</v>
+        <v>6.311190962184544</v>
       </c>
       <c r="D6">
-        <v>4.824941454872541</v>
+        <v>4.803152341919756</v>
       </c>
       <c r="E6">
-        <v>7.506089898214742</v>
+        <v>7.366301917577638</v>
       </c>
       <c r="F6">
-        <v>22.19752030551258</v>
+        <v>21.30910262694008</v>
       </c>
       <c r="G6">
-        <v>30.20780752868372</v>
+        <v>28.3086937587067</v>
       </c>
       <c r="H6">
-        <v>2.57813694318571</v>
+        <v>2.429485778506853</v>
       </c>
       <c r="J6">
-        <v>10.90746790908144</v>
+        <v>10.78315578231042</v>
       </c>
       <c r="K6">
-        <v>17.62105573094555</v>
+        <v>16.73725950737041</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>14.06090354073068</v>
       </c>
       <c r="M6">
-        <v>10.45702914974951</v>
+        <v>10.81780218484811</v>
       </c>
       <c r="N6">
-        <v>6.930869420357225</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>10.44800387043409</v>
       </c>
       <c r="P6">
-        <v>13.55891618075646</v>
+        <v>7.070961077128334</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>13.29775025682524</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.06675905618786</v>
+        <v>12.60019223527357</v>
       </c>
       <c r="C7">
-        <v>6.436375482684306</v>
+        <v>6.426418398862987</v>
       </c>
       <c r="D7">
-        <v>4.851864028732309</v>
+        <v>4.841752332648838</v>
       </c>
       <c r="E7">
-        <v>7.59100424568514</v>
+        <v>7.443213008440214</v>
       </c>
       <c r="F7">
-        <v>22.3481950165822</v>
+        <v>21.41700659597932</v>
       </c>
       <c r="G7">
-        <v>30.42525136616144</v>
+        <v>28.5422838929815</v>
       </c>
       <c r="H7">
-        <v>2.506261557357192</v>
+        <v>2.365133291731781</v>
       </c>
       <c r="J7">
-        <v>10.91798635212612</v>
+        <v>10.75611625217937</v>
       </c>
       <c r="K7">
-        <v>17.64401907352565</v>
+        <v>16.73422228326574</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>14.03055559681763</v>
       </c>
       <c r="M7">
-        <v>10.69353296151003</v>
+        <v>10.83057302685781</v>
       </c>
       <c r="N7">
-        <v>7.022818788247216</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>10.67212374847007</v>
       </c>
       <c r="P7">
-        <v>13.50918091506648</v>
+        <v>7.15904377839824</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>13.24767996431748</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.26087404778448</v>
+        <v>13.75537000639392</v>
       </c>
       <c r="C8">
-        <v>6.832659423650164</v>
+        <v>6.929053723528968</v>
       </c>
       <c r="D8">
-        <v>4.966893326480109</v>
+        <v>5.002323491049634</v>
       </c>
       <c r="E8">
-        <v>7.953133616895407</v>
+        <v>7.768005792387927</v>
       </c>
       <c r="F8">
-        <v>23.03062507950371</v>
+        <v>21.94932926944492</v>
       </c>
       <c r="G8">
-        <v>31.4098076916391</v>
+        <v>29.44357679367704</v>
       </c>
       <c r="H8">
-        <v>2.200281796945083</v>
+        <v>2.089964188386464</v>
       </c>
       <c r="J8">
-        <v>10.97487337355874</v>
+        <v>10.73605765506797</v>
       </c>
       <c r="K8">
-        <v>17.76240989371584</v>
+        <v>16.75447702872518</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>13.91812075670667</v>
       </c>
       <c r="M8">
-        <v>11.67985995299666</v>
+        <v>10.94805112676434</v>
       </c>
       <c r="N8">
-        <v>7.414313776219061</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>11.61956149980317</v>
       </c>
       <c r="P8">
-        <v>13.29455475672368</v>
+        <v>7.537083839196494</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>13.03519882463769</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.42710066691816</v>
+        <v>15.84852043582195</v>
       </c>
       <c r="C9">
-        <v>7.549543774671608</v>
+        <v>7.856028712201808</v>
       </c>
       <c r="D9">
-        <v>5.178169762549369</v>
+        <v>5.290029850059031</v>
       </c>
       <c r="E9">
-        <v>8.615874915448005</v>
+        <v>8.356984391103374</v>
       </c>
       <c r="F9">
-        <v>24.42397458931776</v>
+        <v>23.11121677317725</v>
       </c>
       <c r="G9">
-        <v>33.4195144958016</v>
+        <v>31.04499713909328</v>
       </c>
       <c r="H9">
-        <v>1.639001060639133</v>
+        <v>1.583927749403777</v>
       </c>
       <c r="J9">
-        <v>11.12590520621537</v>
+        <v>10.87191237274915</v>
       </c>
       <c r="K9">
-        <v>18.05891982971103</v>
+        <v>16.87924890926648</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>13.73547353459802</v>
       </c>
       <c r="M9">
-        <v>13.40827334906098</v>
+        <v>11.37679826308831</v>
       </c>
       <c r="N9">
-        <v>8.12699113284973</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>13.29891355820766</v>
       </c>
       <c r="P9">
-        <v>12.89016110894848</v>
+        <v>8.231398057131152</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>12.64000001572317</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.84946764189415</v>
+        <v>17.15187067854114</v>
       </c>
       <c r="C10">
-        <v>8.080688895011457</v>
+        <v>8.48508823935672</v>
       </c>
       <c r="D10">
-        <v>5.342120453830771</v>
+        <v>5.52152452962707</v>
       </c>
       <c r="E10">
-        <v>8.918340292200599</v>
+        <v>8.623244312377501</v>
       </c>
       <c r="F10">
-        <v>25.34106627134773</v>
+        <v>23.77372418211898</v>
       </c>
       <c r="G10">
-        <v>34.69729943275625</v>
+        <v>32.4659873407555</v>
       </c>
       <c r="H10">
-        <v>1.855107689932095</v>
+        <v>1.86859898683161</v>
       </c>
       <c r="J10">
-        <v>11.21722391179934</v>
+        <v>10.70395806174588</v>
       </c>
       <c r="K10">
-        <v>18.21650163639024</v>
+        <v>16.8648196396603</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>13.50547731219313</v>
       </c>
       <c r="M10">
-        <v>14.53394328949263</v>
+        <v>11.68021591329551</v>
       </c>
       <c r="N10">
-        <v>8.481378885939671</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>14.36521570730414</v>
       </c>
       <c r="P10">
-        <v>12.58607285182259</v>
+        <v>8.569552189729364</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>12.34100337977837</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.93390191428704</v>
+        <v>17.21752321329557</v>
       </c>
       <c r="C11">
-        <v>8.68555626258158</v>
+        <v>9.037558684388598</v>
       </c>
       <c r="D11">
-        <v>5.579825309985184</v>
+        <v>5.814473547915366</v>
       </c>
       <c r="E11">
-        <v>7.844221486938478</v>
+        <v>7.599928429471483</v>
       </c>
       <c r="F11">
-        <v>24.60774417660074</v>
+        <v>22.89032480169212</v>
       </c>
       <c r="G11">
-        <v>33.23184656810987</v>
+        <v>31.9609977578759</v>
       </c>
       <c r="H11">
-        <v>2.79071828751918</v>
+        <v>2.790341374883647</v>
       </c>
       <c r="J11">
-        <v>10.87050088436266</v>
+        <v>9.932149897455957</v>
       </c>
       <c r="K11">
-        <v>17.41556183452756</v>
+        <v>16.03888176993237</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>12.82335584883916</v>
       </c>
       <c r="M11">
-        <v>14.85200713097572</v>
+        <v>11.15495922222791</v>
       </c>
       <c r="N11">
-        <v>7.522376543002304</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>14.62476132678993</v>
       </c>
       <c r="P11">
-        <v>12.32631229614889</v>
+        <v>7.591680556250083</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>12.13400452910613</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.71257765239021</v>
+        <v>17.01735119302113</v>
       </c>
       <c r="C12">
-        <v>9.103302669358298</v>
+        <v>9.404865401683606</v>
       </c>
       <c r="D12">
-        <v>5.758593819686553</v>
+        <v>6.015935429816421</v>
       </c>
       <c r="E12">
-        <v>7.080470992461835</v>
+        <v>6.884597644370091</v>
       </c>
       <c r="F12">
-        <v>23.77374984674714</v>
+        <v>22.04640649657721</v>
       </c>
       <c r="G12">
-        <v>31.69130684137897</v>
+        <v>30.95728298519805</v>
       </c>
       <c r="H12">
-        <v>4.085805283630584</v>
+        <v>4.084533351890167</v>
       </c>
       <c r="J12">
-        <v>10.55217376140954</v>
+        <v>9.484694812526614</v>
       </c>
       <c r="K12">
-        <v>16.70107596954677</v>
+        <v>15.38028915088337</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>12.33647813307633</v>
       </c>
       <c r="M12">
-        <v>14.89131039274461</v>
+        <v>10.65988225667145</v>
       </c>
       <c r="N12">
-        <v>6.685155647097213</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>14.64328833847745</v>
       </c>
       <c r="P12">
-        <v>12.19228587052673</v>
+        <v>6.744019294806011</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>12.05029767258441</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.23539039757204</v>
+        <v>16.60279044928262</v>
       </c>
       <c r="C13">
-        <v>9.409560594533454</v>
+        <v>9.679543723858634</v>
       </c>
       <c r="D13">
-        <v>5.902216151848383</v>
+        <v>6.149641139604875</v>
       </c>
       <c r="E13">
-        <v>6.566332376388511</v>
+        <v>6.423266043867676</v>
       </c>
       <c r="F13">
-        <v>22.79346407746642</v>
+        <v>21.20638315152366</v>
       </c>
       <c r="G13">
-        <v>29.96704819028589</v>
+        <v>29.30618283329652</v>
       </c>
       <c r="H13">
-        <v>5.452351022254853</v>
+        <v>5.451129967932062</v>
       </c>
       <c r="J13">
-        <v>10.23487326682788</v>
+        <v>9.308723485814253</v>
       </c>
       <c r="K13">
-        <v>16.00869661822681</v>
+        <v>14.82699847436109</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>11.96824055084033</v>
       </c>
       <c r="M13">
-        <v>14.71996753179822</v>
+        <v>10.17755386029303</v>
       </c>
       <c r="N13">
-        <v>5.899161676737007</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>14.49019585144984</v>
       </c>
       <c r="P13">
-        <v>12.14561140279221</v>
+        <v>5.95544485433292</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>12.04771423617534</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.77859252888825</v>
+        <v>16.20915017837584</v>
       </c>
       <c r="C14">
-        <v>9.57784408961788</v>
+        <v>9.834505120936441</v>
       </c>
       <c r="D14">
-        <v>5.987832095143975</v>
+        <v>6.212781690578227</v>
       </c>
       <c r="E14">
-        <v>6.391091552978188</v>
+        <v>6.289942528702197</v>
       </c>
       <c r="F14">
-        <v>22.03481051727605</v>
+        <v>20.61178288095946</v>
       </c>
       <c r="G14">
-        <v>28.66673413354684</v>
+        <v>27.85827012209879</v>
       </c>
       <c r="H14">
-        <v>6.484267874956745</v>
+        <v>6.480984131854299</v>
       </c>
       <c r="J14">
-        <v>10.0142680035195</v>
+        <v>9.290426758064051</v>
       </c>
       <c r="K14">
-        <v>15.53874685164664</v>
+        <v>14.48688731576037</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>11.75852349164146</v>
       </c>
       <c r="M14">
-        <v>14.50265980422664</v>
+        <v>9.849082606898106</v>
       </c>
       <c r="N14">
-        <v>5.39820975233761</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>14.30303514453306</v>
       </c>
       <c r="P14">
-        <v>12.15451195410644</v>
+        <v>5.456077555366509</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>12.08027425095209</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.61064155680877</v>
+        <v>16.06505165218922</v>
       </c>
       <c r="C15">
-        <v>9.593699634535625</v>
+        <v>9.851397572807723</v>
       </c>
       <c r="D15">
-        <v>5.999592087594615</v>
+        <v>6.212582280701778</v>
       </c>
       <c r="E15">
-        <v>6.370638694904744</v>
+        <v>6.281378519650686</v>
       </c>
       <c r="F15">
-        <v>21.82072459820638</v>
+        <v>20.46558935793244</v>
       </c>
       <c r="G15">
-        <v>28.31390576074176</v>
+        <v>27.38646028935124</v>
       </c>
       <c r="H15">
-        <v>6.723529951491004</v>
+        <v>6.719294352952707</v>
       </c>
       <c r="J15">
-        <v>9.961950325268925</v>
+        <v>9.330797231350598</v>
       </c>
       <c r="K15">
-        <v>15.43074619697288</v>
+        <v>14.42373104929282</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>11.72670774220192</v>
       </c>
       <c r="M15">
-        <v>14.40371010158353</v>
+        <v>9.77326754235119</v>
       </c>
       <c r="N15">
-        <v>5.282230945475741</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>14.21902784367399</v>
       </c>
       <c r="P15">
-        <v>12.17207586792678</v>
+        <v>5.342112534697247</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>12.10083574793636</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.08536498058865</v>
+        <v>15.61229028688089</v>
       </c>
       <c r="C16">
-        <v>9.329411775708621</v>
+        <v>9.618907358781469</v>
       </c>
       <c r="D16">
-        <v>5.901556936400807</v>
+        <v>6.060630934418885</v>
       </c>
       <c r="E16">
-        <v>6.314889436762025</v>
+        <v>6.236920689479804</v>
       </c>
       <c r="F16">
-        <v>21.58533341102912</v>
+        <v>20.46253455738033</v>
       </c>
       <c r="G16">
-        <v>28.04326591911378</v>
+        <v>26.44395557573277</v>
       </c>
       <c r="H16">
-        <v>6.520470671220744</v>
+        <v>6.510621757155809</v>
       </c>
       <c r="J16">
-        <v>9.983870526246191</v>
+        <v>9.728398887655704</v>
       </c>
       <c r="K16">
-        <v>15.50047583844573</v>
+        <v>14.60525974501202</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>11.90885839929111</v>
       </c>
       <c r="M16">
-        <v>13.96535539651417</v>
+        <v>9.811098893037027</v>
       </c>
       <c r="N16">
-        <v>5.258416201974881</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>13.8449860168767</v>
       </c>
       <c r="P16">
-        <v>12.30567245586436</v>
+        <v>5.333738545939248</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>12.21484015726091</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.9302251531907</v>
+        <v>15.47286537929586</v>
       </c>
       <c r="C17">
-        <v>9.028372059426616</v>
+        <v>9.337333711711333</v>
       </c>
       <c r="D17">
-        <v>5.778833333180328</v>
+        <v>5.914420928357117</v>
       </c>
       <c r="E17">
-        <v>6.331518743455984</v>
+        <v>6.234303333616855</v>
       </c>
       <c r="F17">
-        <v>21.82098024199045</v>
+        <v>20.76303226270407</v>
       </c>
       <c r="G17">
-        <v>28.54829087943908</v>
+        <v>26.61416579627308</v>
       </c>
       <c r="H17">
-        <v>5.785698165293577</v>
+        <v>5.77123436575318</v>
       </c>
       <c r="J17">
-        <v>10.11885411842645</v>
+        <v>10.00973023171325</v>
       </c>
       <c r="K17">
-        <v>15.80303451233826</v>
+        <v>14.91682404142366</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>12.16360727392734</v>
       </c>
       <c r="M17">
-        <v>13.74318546854092</v>
+        <v>10.00297211039062</v>
       </c>
       <c r="N17">
-        <v>5.496796348741418</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>13.64874763093285</v>
       </c>
       <c r="P17">
-        <v>12.40341012658974</v>
+        <v>5.582239822678544</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>12.29015843979977</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.08494792483556</v>
+        <v>15.60279784061661</v>
       </c>
       <c r="C18">
-        <v>8.669284803763947</v>
+        <v>9.001567242866097</v>
       </c>
       <c r="D18">
-        <v>5.626103595999044</v>
+        <v>5.754241091980392</v>
       </c>
       <c r="E18">
-        <v>6.596794280256706</v>
+        <v>6.451624526002902</v>
       </c>
       <c r="F18">
-        <v>22.48039889218666</v>
+        <v>21.38862668318223</v>
       </c>
       <c r="G18">
-        <v>29.76654725976203</v>
+        <v>27.59216453853824</v>
       </c>
       <c r="H18">
-        <v>4.52955419970282</v>
+        <v>4.510145838310347</v>
       </c>
       <c r="J18">
-        <v>10.36484511649215</v>
+        <v>10.29192306969829</v>
       </c>
       <c r="K18">
-        <v>16.34345194049875</v>
+        <v>15.39856322462963</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>12.53146949341897</v>
       </c>
       <c r="M18">
-        <v>13.6887278024332</v>
+        <v>10.35818206394848</v>
       </c>
       <c r="N18">
-        <v>6.054563838970268</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>13.59964253321606</v>
       </c>
       <c r="P18">
-        <v>12.49224288718922</v>
+        <v>6.147015297284095</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>12.3494610077196</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.47508217386126</v>
+        <v>15.94114187839115</v>
       </c>
       <c r="C19">
-        <v>8.303220091877222</v>
+        <v>8.662666846985086</v>
       </c>
       <c r="D19">
-        <v>5.467924629157415</v>
+        <v>5.597539329416911</v>
       </c>
       <c r="E19">
-        <v>7.272952227288056</v>
+        <v>7.066364138682451</v>
       </c>
       <c r="F19">
-        <v>23.42108691617099</v>
+        <v>22.23483225926173</v>
       </c>
       <c r="G19">
-        <v>31.45369522630743</v>
+        <v>29.07036703025095</v>
       </c>
       <c r="H19">
-        <v>3.02757665998439</v>
+        <v>3.001863175614257</v>
       </c>
       <c r="J19">
-        <v>10.68268197224421</v>
+        <v>10.58536128934758</v>
       </c>
       <c r="K19">
-        <v>17.04522075695665</v>
+        <v>15.99774841751645</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>12.97600077687245</v>
       </c>
       <c r="M19">
-        <v>13.77495530359173</v>
+        <v>10.82807495129951</v>
       </c>
       <c r="N19">
-        <v>6.89480171774892</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>13.67846178121389</v>
       </c>
       <c r="P19">
-        <v>12.58228122856143</v>
+        <v>6.991332311966114</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>12.40276595536148</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.48387182413264</v>
+        <v>16.82963390765919</v>
       </c>
       <c r="C20">
-        <v>7.945879024831501</v>
+        <v>8.34843778307064</v>
       </c>
       <c r="D20">
-        <v>5.300477391871476</v>
+        <v>5.453534358769812</v>
       </c>
       <c r="E20">
-        <v>8.833100517009152</v>
+        <v>8.542440391881359</v>
       </c>
       <c r="F20">
-        <v>25.09231037693049</v>
+        <v>23.65308399132461</v>
       </c>
       <c r="G20">
-        <v>34.3479644234662</v>
+        <v>31.83550333204516</v>
       </c>
       <c r="H20">
-        <v>1.757028940950227</v>
+        <v>1.782835621745589</v>
       </c>
       <c r="J20">
-        <v>11.18945360399377</v>
+        <v>10.89295441928134</v>
       </c>
       <c r="K20">
-        <v>18.16767060182625</v>
+        <v>16.89521628657836</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>13.58562336245106</v>
       </c>
       <c r="M20">
-        <v>14.24564356943808</v>
+        <v>11.6181753365335</v>
       </c>
       <c r="N20">
-        <v>8.384001946302877</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>14.10930957849907</v>
       </c>
       <c r="P20">
-        <v>12.66457162293886</v>
+        <v>8.479157806814429</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>12.42288474747192</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.61889662196657</v>
+        <v>17.80132439422053</v>
       </c>
       <c r="C21">
-        <v>8.276298005832745</v>
+        <v>8.637297221465607</v>
       </c>
       <c r="D21">
-        <v>5.395297546082016</v>
+        <v>5.645586010688136</v>
       </c>
       <c r="E21">
-        <v>9.295168453931629</v>
+        <v>8.996720384573146</v>
       </c>
       <c r="F21">
-        <v>26.0096027262244</v>
+        <v>24.03613721353023</v>
       </c>
       <c r="G21">
-        <v>35.70703633870697</v>
+        <v>34.54802672701053</v>
       </c>
       <c r="H21">
-        <v>2.052024295606524</v>
+        <v>2.036825647459162</v>
       </c>
       <c r="J21">
-        <v>11.33828454597713</v>
+        <v>10.08213933697317</v>
       </c>
       <c r="K21">
-        <v>18.46070214788249</v>
+        <v>16.85506551253898</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>13.38674943224545</v>
       </c>
       <c r="M21">
-        <v>15.10115895711108</v>
+        <v>11.84455249980372</v>
       </c>
       <c r="N21">
-        <v>8.851001863678945</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>14.83142926487478</v>
       </c>
       <c r="P21">
-        <v>12.45887775032591</v>
+        <v>8.920402536120847</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>12.18748644275697</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.29873743864123</v>
+        <v>18.37808983692853</v>
       </c>
       <c r="C22">
-        <v>8.507017754816292</v>
+        <v>8.833501692831968</v>
       </c>
       <c r="D22">
-        <v>5.464609564731533</v>
+        <v>5.781892334141172</v>
       </c>
       <c r="E22">
-        <v>9.511956544291547</v>
+        <v>9.215130854370818</v>
       </c>
       <c r="F22">
-        <v>26.5437158231679</v>
+        <v>24.20975224684793</v>
       </c>
       <c r="G22">
-        <v>36.47787439840668</v>
+        <v>36.30753749522551</v>
       </c>
       <c r="H22">
-        <v>2.2353418766534</v>
+        <v>2.194146128371731</v>
       </c>
       <c r="J22">
-        <v>11.41752266197155</v>
+        <v>9.525132832475247</v>
       </c>
       <c r="K22">
-        <v>18.60836132413807</v>
+        <v>16.777538708388</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>13.22054471992057</v>
       </c>
       <c r="M22">
-        <v>15.62792553854876</v>
+        <v>11.95879465250349</v>
       </c>
       <c r="N22">
-        <v>9.080534352461234</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>15.26955666947664</v>
       </c>
       <c r="P22">
-        <v>12.31754720587918</v>
+        <v>9.132759861432245</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>12.02957801531889</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.93861613238123</v>
+        <v>18.08128314275807</v>
       </c>
       <c r="C23">
-        <v>8.384499440171776</v>
+        <v>8.744936916015266</v>
       </c>
       <c r="D23">
-        <v>5.427787158595037</v>
+        <v>5.702769011389979</v>
       </c>
       <c r="E23">
-        <v>9.396779612568583</v>
+        <v>9.094852364932441</v>
       </c>
       <c r="F23">
-        <v>26.25839371680547</v>
+        <v>24.16054663369722</v>
       </c>
       <c r="G23">
-        <v>36.06607143811146</v>
+        <v>35.18926568804818</v>
       </c>
       <c r="H23">
-        <v>2.137809601954201</v>
+        <v>2.111566218747131</v>
       </c>
       <c r="J23">
-        <v>11.37475488678853</v>
+        <v>9.913689489630006</v>
       </c>
       <c r="K23">
-        <v>18.52877804505212</v>
+        <v>16.84270102351435</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>13.32558235903497</v>
       </c>
       <c r="M23">
-        <v>15.34879812911888</v>
+        <v>11.91680592616886</v>
       </c>
       <c r="N23">
-        <v>8.958681434141459</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>15.04926788703855</v>
       </c>
       <c r="P23">
-        <v>12.39285826631462</v>
+        <v>9.021985939188646</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>12.11674455057253</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.5145893013889</v>
+        <v>16.85616031567681</v>
       </c>
       <c r="C24">
-        <v>7.906793274165112</v>
+        <v>8.310815540030216</v>
       </c>
       <c r="D24">
-        <v>5.284624593107119</v>
+        <v>5.436571656915921</v>
       </c>
       <c r="E24">
-        <v>8.94903106104378</v>
+        <v>8.653840529959353</v>
       </c>
       <c r="F24">
-        <v>25.18393946828681</v>
+        <v>23.73829404886371</v>
       </c>
       <c r="G24">
-        <v>34.51575299127936</v>
+        <v>31.97319762249662</v>
       </c>
       <c r="H24">
-        <v>1.761492260619879</v>
+        <v>1.78717479103587</v>
       </c>
       <c r="J24">
-        <v>11.22310826446006</v>
+        <v>10.92992897829335</v>
       </c>
       <c r="K24">
-        <v>18.24416090765392</v>
+        <v>16.96272495988258</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>13.63780453303158</v>
       </c>
       <c r="M24">
-        <v>14.24713240458906</v>
+        <v>11.66814558751469</v>
       </c>
       <c r="N24">
-        <v>8.482961188640457</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>14.11085931039634</v>
       </c>
       <c r="P24">
-        <v>12.68081805394823</v>
+        <v>8.578702321643776</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>12.43438720507049</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.84814042393934</v>
+        <v>15.31604902446981</v>
       </c>
       <c r="C25">
-        <v>7.362158776520243</v>
+        <v>7.624535741958138</v>
       </c>
       <c r="D25">
-        <v>5.122607423051889</v>
+        <v>5.210750927764223</v>
       </c>
       <c r="E25">
-        <v>8.441825591754402</v>
+        <v>8.200137685712628</v>
       </c>
       <c r="F25">
-        <v>24.04186039898527</v>
+        <v>22.81735307496869</v>
       </c>
       <c r="G25">
-        <v>32.86837383556309</v>
+        <v>30.49996707916297</v>
       </c>
       <c r="H25">
-        <v>1.78684260543326</v>
+        <v>1.71627621524265</v>
       </c>
       <c r="J25">
-        <v>11.08064978792925</v>
+        <v>10.89383900449902</v>
       </c>
       <c r="K25">
-        <v>17.97153780551695</v>
+        <v>16.85318220677506</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>13.79429153029393</v>
       </c>
       <c r="M25">
-        <v>12.96264460730829</v>
+        <v>11.25273802923522</v>
       </c>
       <c r="N25">
-        <v>7.94038368889578</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>12.87346009239497</v>
       </c>
       <c r="P25">
-        <v>12.99788838412803</v>
+        <v>8.050553934187054</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>12.7473883264701</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
